--- a/_assets/Gantt-Chart-Template-2.xlsx
+++ b/_assets/Gantt-Chart-Template-2.xlsx
@@ -2783,24 +2783,6 @@
     <xf numFmtId="1" fontId="71" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2808,9 +2790,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3535,7 +3535,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3563,29 +3563,29 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="I1" s="124"/>
-      <c r="K1" s="166" t="s">
+      <c r="K1" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
@@ -3630,11 +3630,11 @@
       <c r="B4" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="165">
         <v>43570</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="103"/>
       <c r="G4" s="106" t="s">
         <v>51</v>
@@ -3644,180 +3644,180 @@
       </c>
       <c r="I4" s="104"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="160" t="str">
+      <c r="K4" s="162" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="160" t="str">
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="162" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="160" t="str">
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="162" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="160" t="str">
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="162" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="160" t="str">
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="162" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="160" t="str">
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="164"/>
+      <c r="AT4" s="162" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="161"/>
-      <c r="AV4" s="161"/>
-      <c r="AW4" s="161"/>
-      <c r="AX4" s="161"/>
-      <c r="AY4" s="161"/>
-      <c r="AZ4" s="162"/>
-      <c r="BA4" s="160" t="str">
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="164"/>
+      <c r="BA4" s="162" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="161"/>
-      <c r="BC4" s="161"/>
-      <c r="BD4" s="161"/>
-      <c r="BE4" s="161"/>
-      <c r="BF4" s="161"/>
-      <c r="BG4" s="162"/>
-      <c r="BH4" s="160" t="str">
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="164"/>
+      <c r="BH4" s="162" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="161"/>
-      <c r="BJ4" s="161"/>
-      <c r="BK4" s="161"/>
-      <c r="BL4" s="161"/>
-      <c r="BM4" s="161"/>
-      <c r="BN4" s="162"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="163"/>
+      <c r="BL4" s="163"/>
+      <c r="BM4" s="163"/>
+      <c r="BN4" s="164"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="105"/>
       <c r="G5" s="105"/>
       <c r="H5" s="105"/>
       <c r="I5" s="105"/>
       <c r="J5" s="44"/>
-      <c r="K5" s="163">
+      <c r="K5" s="166">
         <f>K6</f>
         <v>43570</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="163">
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="166">
         <f>R6</f>
         <v>43577</v>
       </c>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="163">
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="166">
         <f>Y6</f>
         <v>43584</v>
       </c>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="163">
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="166">
         <f>AF6</f>
         <v>43591</v>
       </c>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="163">
+      <c r="AG5" s="167"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
+      <c r="AK5" s="167"/>
+      <c r="AL5" s="168"/>
+      <c r="AM5" s="166">
         <f>AM6</f>
         <v>43598</v>
       </c>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="164"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="163">
+      <c r="AN5" s="167"/>
+      <c r="AO5" s="167"/>
+      <c r="AP5" s="167"/>
+      <c r="AQ5" s="167"/>
+      <c r="AR5" s="167"/>
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="166">
         <f>AT6</f>
         <v>43605</v>
       </c>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="163">
+      <c r="AU5" s="167"/>
+      <c r="AV5" s="167"/>
+      <c r="AW5" s="167"/>
+      <c r="AX5" s="167"/>
+      <c r="AY5" s="167"/>
+      <c r="AZ5" s="168"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>43612</v>
       </c>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="164"/>
-      <c r="BD5" s="164"/>
-      <c r="BE5" s="164"/>
-      <c r="BF5" s="164"/>
-      <c r="BG5" s="165"/>
-      <c r="BH5" s="163">
+      <c r="BB5" s="167"/>
+      <c r="BC5" s="167"/>
+      <c r="BD5" s="167"/>
+      <c r="BE5" s="167"/>
+      <c r="BF5" s="167"/>
+      <c r="BG5" s="168"/>
+      <c r="BH5" s="166">
         <f>BH6</f>
         <v>43619</v>
       </c>
-      <c r="BI5" s="164"/>
-      <c r="BJ5" s="164"/>
-      <c r="BK5" s="164"/>
-      <c r="BL5" s="164"/>
-      <c r="BM5" s="164"/>
-      <c r="BN5" s="165"/>
+      <c r="BI5" s="167"/>
+      <c r="BJ5" s="167"/>
+      <c r="BK5" s="167"/>
+      <c r="BL5" s="167"/>
+      <c r="BM5" s="167"/>
+      <c r="BN5" s="168"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
@@ -4405,17 +4405,17 @@
       </c>
       <c r="F9" s="156">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43570</v>
+        <v>43571</v>
       </c>
       <c r="G9" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="56">
         <v>1</v>
       </c>
       <c r="I9" s="57">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="88"/>
       <c r="K9" s="99"/>
@@ -7394,15 +7394,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7413,6 +7404,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H16 H18:H44">
